--- a/Code/Results/Cases/Case_2_161/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_161/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.60133288861304</v>
+        <v>12.84399113027431</v>
       </c>
       <c r="C2">
-        <v>14.22576122751462</v>
+        <v>8.8400742040184</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.45285677591562</v>
+        <v>21.42273286564289</v>
       </c>
       <c r="F2">
-        <v>28.92420967527829</v>
+        <v>38.0192710486092</v>
       </c>
       <c r="G2">
-        <v>2.068958452531185</v>
+        <v>3.617520742673954</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.553703840292137</v>
+        <v>7.705357923337286</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.3607876940272</v>
+        <v>19.28082668016616</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.57932238321199</v>
+        <v>19.85006442099378</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.26394246285884</v>
+        <v>12.21591784434323</v>
       </c>
       <c r="C3">
-        <v>13.425525225694</v>
+        <v>8.414586927430291</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.93011469429063</v>
+        <v>21.38088291392584</v>
       </c>
       <c r="F3">
-        <v>28.01685114201406</v>
+        <v>38.0197488058127</v>
       </c>
       <c r="G3">
-        <v>2.074829663145505</v>
+        <v>3.619657161654706</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.622329350760075</v>
+        <v>7.728478295074376</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.31295552593645</v>
+        <v>19.02889191414526</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.63076517266366</v>
+        <v>19.97235111230211</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.39584881773218</v>
+        <v>11.81370258593417</v>
       </c>
       <c r="C4">
-        <v>12.91003166716338</v>
+        <v>8.1409774274368</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.60879729060025</v>
+        <v>21.35889497832381</v>
       </c>
       <c r="F4">
-        <v>27.47774597480969</v>
+        <v>38.03171301837283</v>
       </c>
       <c r="G4">
-        <v>2.078533834364998</v>
+        <v>3.621037052954156</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.665538378157807</v>
+        <v>7.743398818283126</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.64193887694469</v>
+        <v>18.87491905588814</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.68508940175528</v>
+        <v>20.05410230866446</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.03025524878903</v>
+        <v>11.64581255457273</v>
       </c>
       <c r="C5">
-        <v>12.69398452992179</v>
+        <v>8.026467854378669</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.47793385625478</v>
+        <v>21.35087271591757</v>
       </c>
       <c r="F5">
-        <v>27.26280402758901</v>
+        <v>38.03951865954831</v>
       </c>
       <c r="G5">
-        <v>2.080069092904698</v>
+        <v>3.621616555530624</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.683425196952252</v>
+        <v>7.749661816928121</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.36174049360723</v>
+        <v>18.81241841340086</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.71259508968397</v>
+        <v>20.08908454575149</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.96883286028897</v>
+        <v>11.61769990055267</v>
       </c>
       <c r="C6">
-        <v>12.65775216633748</v>
+        <v>8.007274882054295</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.45621372997176</v>
+        <v>21.34959742688777</v>
       </c>
       <c r="F6">
-        <v>27.22740607771179</v>
+        <v>38.04099157438479</v>
       </c>
       <c r="G6">
-        <v>2.080325601775305</v>
+        <v>3.621713821110813</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.686412384332678</v>
+        <v>7.750712838582016</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.31481261877535</v>
+        <v>18.80205687987184</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.71747644012058</v>
+        <v>20.09499381444663</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.39096626875814</v>
+        <v>11.8114542278342</v>
       </c>
       <c r="C7">
-        <v>12.90714204821033</v>
+        <v>8.139445165314164</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.60703188593435</v>
+        <v>21.35878298255729</v>
       </c>
       <c r="F7">
-        <v>27.47482768530224</v>
+        <v>38.0318064318197</v>
       </c>
       <c r="G7">
-        <v>2.078554433957621</v>
+        <v>3.621044798670437</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.665778465576429</v>
+        <v>7.743482542506955</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.63818707136822</v>
+        <v>18.87407507517312</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.68543907790277</v>
+        <v>20.054567349002</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.14991485951932</v>
+        <v>12.63097300065035</v>
       </c>
       <c r="C8">
-        <v>13.95489840820543</v>
+        <v>8.695983933137679</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.27278267958642</v>
+        <v>21.40753693136047</v>
       </c>
       <c r="F8">
-        <v>28.60774407276219</v>
+        <v>38.01701138500127</v>
       </c>
       <c r="G8">
-        <v>2.070962764913332</v>
+        <v>3.618243275118851</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.577148875884878</v>
+        <v>7.71317980150515</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.00533618120538</v>
+        <v>19.19384964809366</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.59213001807555</v>
+        <v>19.89084013167057</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.22912793445305</v>
+        <v>14.09987393193757</v>
       </c>
       <c r="C9">
-        <v>15.81519579833039</v>
+        <v>9.685848609206964</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.56907701806442</v>
+        <v>21.53229234208833</v>
       </c>
       <c r="F9">
-        <v>30.96297529415089</v>
+        <v>38.08070824077436</v>
       </c>
       <c r="G9">
-        <v>2.056822867120439</v>
+        <v>3.61328744731133</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.4114232181188</v>
+        <v>7.65947850385227</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.46063571641571</v>
+        <v>19.82378162338566</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.60508833952327</v>
+        <v>19.62304601905533</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.26971712174885</v>
+        <v>15.08764655886571</v>
       </c>
       <c r="C10">
-        <v>17.06129252622498</v>
+        <v>10.34753174075186</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.50844533293067</v>
+        <v>21.64131332290061</v>
       </c>
       <c r="F10">
-        <v>32.76332002195566</v>
+        <v>38.18402558234128</v>
       </c>
       <c r="G10">
-        <v>2.046830129491859</v>
+        <v>3.609970755088169</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.293943152868341</v>
+        <v>7.623475403984405</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.27393720921322</v>
+        <v>20.28458345794194</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.75466166850302</v>
+        <v>19.45929225882637</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.15090737864679</v>
+        <v>15.51604702430854</v>
       </c>
       <c r="C11">
-        <v>17.60186808383113</v>
+        <v>10.63375053888137</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>17.9317786044061</v>
+        <v>21.6945790634793</v>
       </c>
       <c r="F11">
-        <v>33.59557571258069</v>
+        <v>38.243250128863</v>
       </c>
       <c r="G11">
-        <v>2.042355743951417</v>
+        <v>3.60853157016232</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.2412741286117</v>
+        <v>7.607838142840871</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.07349813248556</v>
+        <v>20.49300172091274</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.85723178623909</v>
+        <v>19.39207209634869</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.47791237330089</v>
+        <v>15.67518858977731</v>
       </c>
       <c r="C12">
-        <v>17.80279944829454</v>
+        <v>10.73997274715429</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.09143723463471</v>
+        <v>21.71526768156609</v>
       </c>
       <c r="F12">
-        <v>33.9125156773501</v>
+        <v>38.26742654714906</v>
       </c>
       <c r="G12">
-        <v>2.040670379921411</v>
+        <v>3.607996537865269</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.221427349588485</v>
+        <v>7.602022638283527</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.37030008416511</v>
+        <v>20.57168836237427</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.90134620365263</v>
+        <v>19.36767255139902</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.40778172557255</v>
+        <v>15.64105280316365</v>
       </c>
       <c r="C13">
-        <v>17.75969285544415</v>
+        <v>10.71719258611608</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>18.05708170872741</v>
+        <v>21.71078914254517</v>
       </c>
       <c r="F13">
-        <v>33.84417927424558</v>
+        <v>38.26214208197305</v>
       </c>
       <c r="G13">
-        <v>2.04103297484607</v>
+        <v>3.608111324678183</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.225697580159977</v>
+        <v>7.603270405826419</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.30664254371376</v>
+        <v>20.55475331588669</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.89160621206549</v>
+        <v>19.37288034493872</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.1779436749617</v>
+        <v>15.52920188201742</v>
       </c>
       <c r="C14">
-        <v>17.61847436329251</v>
+        <v>10.64253303098575</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>17.94492716903001</v>
+        <v>21.69627080544551</v>
       </c>
       <c r="F14">
-        <v>33.62161540391648</v>
+        <v>38.24520413526603</v>
       </c>
       <c r="G14">
-        <v>2.042216915557739</v>
+        <v>3.608487353499646</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.239639441263638</v>
+        <v>7.607357576662159</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.0980353544834</v>
+        <v>20.49948042374413</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.86075374749515</v>
+        <v>19.39004352737059</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.03629369883679</v>
+        <v>15.46028635269215</v>
       </c>
       <c r="C15">
-        <v>17.53148301255226</v>
+        <v>10.59651929286911</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>17.87614294854429</v>
+        <v>21.68744506293399</v>
       </c>
       <c r="F15">
-        <v>33.48551772015821</v>
+        <v>38.23505667670189</v>
       </c>
       <c r="G15">
-        <v>2.042943244454976</v>
+        <v>3.60871897701625</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.248191562438691</v>
+        <v>7.609874873801263</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.96948242760323</v>
+        <v>20.46559147584804</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.84255117166549</v>
+        <v>19.40069418222171</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.21118916250698</v>
+        <v>15.05922161816931</v>
       </c>
       <c r="C16">
-        <v>17.02543606488377</v>
+        <v>10.32852586871044</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.48069237104413</v>
+        <v>21.63790532887112</v>
       </c>
       <c r="F16">
-        <v>32.70918559025241</v>
+        <v>38.18040044069376</v>
       </c>
       <c r="G16">
-        <v>2.047123870607076</v>
+        <v>3.610066205194774</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.297399637085632</v>
+        <v>7.624512195814943</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.22084245259875</v>
+        <v>20.27093312836951</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.74868019676879</v>
+        <v>19.46383240593909</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.69301509328727</v>
+        <v>14.8077612090223</v>
       </c>
       <c r="C17">
-        <v>16.7082621121381</v>
+        <v>10.16030551300714</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.23701476790068</v>
+        <v>21.60844782494135</v>
       </c>
       <c r="F17">
-        <v>32.23622858788411</v>
+        <v>38.14999640887998</v>
       </c>
       <c r="G17">
-        <v>2.049705952992832</v>
+        <v>3.610910473971301</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.327776036868155</v>
+        <v>7.633681059504088</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.7508268923965</v>
+        <v>20.15116244320573</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.70016418755654</v>
+        <v>19.50443504516902</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.39053755887494</v>
+        <v>14.66116004275124</v>
       </c>
       <c r="C18">
-        <v>16.52335722975292</v>
+        <v>10.06215973799766</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.09648549997502</v>
+        <v>21.59185086782385</v>
       </c>
       <c r="F18">
-        <v>31.96545053949417</v>
+        <v>38.13366015645315</v>
       </c>
       <c r="G18">
-        <v>2.051197897405785</v>
+        <v>3.611402628730461</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.345321374104707</v>
+        <v>7.639024499693478</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.47650450559777</v>
+        <v>20.08216401053783</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.67549208907058</v>
+        <v>19.5284725379831</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.28735915974381</v>
+        <v>14.61118788849522</v>
       </c>
       <c r="C19">
-        <v>16.46032657761123</v>
+        <v>10.02869179229833</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.04884335738803</v>
+        <v>21.58629117865512</v>
       </c>
       <c r="F19">
-        <v>31.87398961303001</v>
+        <v>38.1283269468263</v>
       </c>
       <c r="G19">
-        <v>2.051704248988832</v>
+        <v>3.611570391064483</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.351274962421161</v>
+        <v>7.640845692957991</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.38293683704633</v>
+        <v>20.05878549614288</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.66768401133338</v>
+        <v>19.53672839474854</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.74863426027488</v>
+        <v>14.83473382960551</v>
       </c>
       <c r="C20">
-        <v>16.7422819489437</v>
+        <v>10.17835699292673</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.26299380730076</v>
+        <v>21.61154786386557</v>
       </c>
       <c r="F20">
-        <v>32.28644688202051</v>
+        <v>38.15311386449196</v>
       </c>
       <c r="G20">
-        <v>2.049430391145432</v>
+        <v>3.610819922212818</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.324534889993555</v>
+        <v>7.632697803049511</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.80127225829985</v>
+        <v>20.16392403880463</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.70499187960401</v>
+        <v>19.50004197170744</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.24563330712238</v>
+        <v>15.56213943234277</v>
       </c>
       <c r="C21">
-        <v>17.66005594248396</v>
+        <v>10.6645213022439</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.97788777136485</v>
+        <v>21.70052121589602</v>
       </c>
       <c r="F21">
-        <v>33.68694022904019</v>
+        <v>38.25013182397885</v>
       </c>
       <c r="G21">
-        <v>2.04186893018939</v>
+        <v>3.608376634934577</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.235541834623479</v>
+        <v>7.606154203254986</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.15946966643586</v>
+        <v>20.51572233904529</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.86967042012282</v>
+        <v>19.38497356902453</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.18510353061801</v>
+        <v>16.01953816544246</v>
       </c>
       <c r="C22">
-        <v>18.23789438987948</v>
+        <v>10.96964010411682</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>18.44131207786187</v>
+        <v>21.76168491187714</v>
       </c>
       <c r="F22">
-        <v>34.61260556504584</v>
+        <v>38.32372961184984</v>
       </c>
       <c r="G22">
-        <v>2.036978802684588</v>
+        <v>3.606837811651103</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.177943097097365</v>
+        <v>7.589423956462459</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24.01235706162436</v>
+        <v>20.74423420584205</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.00815842393247</v>
+        <v>19.31592505007606</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.68721935112594</v>
+        <v>15.77708379500144</v>
       </c>
       <c r="C23">
-        <v>17.93149715533237</v>
+        <v>10.80795728604335</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>18.19434097385723</v>
+        <v>21.72876831768111</v>
       </c>
       <c r="F23">
-        <v>34.11764353973184</v>
+        <v>38.2835200827925</v>
       </c>
       <c r="G23">
-        <v>2.03958447157494</v>
+        <v>3.607653820076878</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.208637745954487</v>
+        <v>7.598296873704611</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.56030240362153</v>
+        <v>20.62242260854863</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.93132600956344</v>
+        <v>19.35221118820358</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.72350308332643</v>
+        <v>14.82254583523933</v>
       </c>
       <c r="C24">
-        <v>16.72690954663224</v>
+        <v>10.17020038157188</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.25125003499293</v>
+        <v>21.61014528093603</v>
       </c>
       <c r="F24">
-        <v>32.26373965767289</v>
+        <v>38.15170090041162</v>
       </c>
       <c r="G24">
-        <v>2.049554949291533</v>
+        <v>3.610860839560052</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.325999957517404</v>
+        <v>7.633142108533328</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.77847869942007</v>
+        <v>20.15815495469608</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.70279927289334</v>
+        <v>19.50202591756599</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.43536955774282</v>
+        <v>13.71811692298821</v>
       </c>
       <c r="C25">
-        <v>15.33303878077538</v>
+        <v>9.429357016390544</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.2202151823201</v>
+        <v>21.49546127261518</v>
       </c>
       <c r="F25">
-        <v>30.31277587240936</v>
+        <v>38.05354170733307</v>
       </c>
       <c r="G25">
-        <v>2.060573991166709</v>
+        <v>3.614570911581587</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.455455905972702</v>
+        <v>7.673397380749217</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.82129307606154</v>
+        <v>19.65345308414039</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.57843832600966</v>
+        <v>19.68973470736064</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_161/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_161/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.84399113027431</v>
+        <v>20.60133288861305</v>
       </c>
       <c r="C2">
-        <v>8.8400742040184</v>
+        <v>14.22576122751449</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>21.42273286564289</v>
+        <v>15.45285677591567</v>
       </c>
       <c r="F2">
-        <v>38.0192710486092</v>
+        <v>28.92420967527839</v>
       </c>
       <c r="G2">
-        <v>3.617520742673954</v>
+        <v>2.068958452531052</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.705357923337286</v>
+        <v>4.55370384029207</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.28082668016616</v>
+        <v>18.3607876940272</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.85006442099378</v>
+        <v>12.579322383212</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.21591784434323</v>
+        <v>19.26394246285882</v>
       </c>
       <c r="C3">
-        <v>8.414586927430291</v>
+        <v>13.42552522569393</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>21.38088291392584</v>
+        <v>14.93011469429069</v>
       </c>
       <c r="F3">
-        <v>38.0197488058127</v>
+        <v>28.01685114201406</v>
       </c>
       <c r="G3">
-        <v>3.619657161654706</v>
+        <v>2.074829663145503</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.728478295074376</v>
+        <v>4.622329350760043</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.02889191414526</v>
+        <v>17.31295552593646</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.97235111230211</v>
+        <v>12.63076517266359</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.81370258593417</v>
+        <v>18.3958488177322</v>
       </c>
       <c r="C4">
-        <v>8.1409774274368</v>
+        <v>12.91003166716334</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>21.35889497832381</v>
+        <v>14.60879729060015</v>
       </c>
       <c r="F4">
-        <v>38.03171301837283</v>
+        <v>27.47774597480965</v>
       </c>
       <c r="G4">
-        <v>3.621037052954156</v>
+        <v>2.078533834365132</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.743398818283126</v>
+        <v>4.66553837815784</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.87491905588814</v>
+        <v>16.64193887694465</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>20.05410230866446</v>
+        <v>12.68508940175535</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.64581255457273</v>
+        <v>18.03025524878899</v>
       </c>
       <c r="C5">
-        <v>8.026467854378669</v>
+        <v>12.69398452992182</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21.35087271591757</v>
+        <v>14.47793385625483</v>
       </c>
       <c r="F5">
-        <v>38.03951865954831</v>
+        <v>27.26280402758903</v>
       </c>
       <c r="G5">
-        <v>3.621616555530624</v>
+        <v>2.080069092904697</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.749661816928121</v>
+        <v>4.683425196952218</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.81241841340086</v>
+        <v>16.36174049360724</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>20.08908454575149</v>
+        <v>12.71259508968389</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.61769990055267</v>
+        <v>17.96883286028894</v>
       </c>
       <c r="C6">
-        <v>8.007274882054295</v>
+        <v>12.65775216633735</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21.34959742688777</v>
+        <v>14.45621372997175</v>
       </c>
       <c r="F6">
-        <v>38.04099157438479</v>
+        <v>27.22740607771185</v>
       </c>
       <c r="G6">
-        <v>3.621713821110813</v>
+        <v>2.080325601775037</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.750712838582016</v>
+        <v>4.686412384332745</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.80205687987184</v>
+        <v>16.31481261877536</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>20.09499381444663</v>
+        <v>12.71747644012067</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.8114542278342</v>
+        <v>18.39096626875812</v>
       </c>
       <c r="C7">
-        <v>8.139445165314164</v>
+        <v>12.90714204821024</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>21.35878298255729</v>
+        <v>14.60703188593419</v>
       </c>
       <c r="F7">
-        <v>38.0318064318197</v>
+        <v>27.47482768530227</v>
       </c>
       <c r="G7">
-        <v>3.621044798670437</v>
+        <v>2.078554433957756</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.743482542506955</v>
+        <v>4.665778465576496</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.87407507517312</v>
+        <v>16.63818707136823</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>20.054567349002</v>
+        <v>12.68543907790301</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.63097300065035</v>
+        <v>20.14991485951922</v>
       </c>
       <c r="C8">
-        <v>8.695983933137679</v>
+        <v>13.9548984082054</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>21.40753693136047</v>
+        <v>15.27278267958632</v>
       </c>
       <c r="F8">
-        <v>38.01701138500127</v>
+        <v>28.60774407276223</v>
       </c>
       <c r="G8">
-        <v>3.618243275118851</v>
+        <v>2.070962764913062</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.71317980150515</v>
+        <v>4.577148875884843</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.19384964809366</v>
+        <v>18.00533618120535</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.89084013167057</v>
+        <v>12.59213001807566</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.09987393193757</v>
+        <v>23.22912793445311</v>
       </c>
       <c r="C9">
-        <v>9.685848609206964</v>
+        <v>15.81519579833046</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>21.53229234208833</v>
+        <v>16.56907701806446</v>
       </c>
       <c r="F9">
-        <v>38.08070824077436</v>
+        <v>30.96297529415082</v>
       </c>
       <c r="G9">
-        <v>3.61328744731133</v>
+        <v>2.056822867120304</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.65947850385227</v>
+        <v>4.411423218118867</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.82378162338566</v>
+        <v>20.46063571641573</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.62304601905533</v>
+        <v>12.60508833952316</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.08764655886571</v>
+        <v>25.26971712174883</v>
       </c>
       <c r="C10">
-        <v>10.34753174075186</v>
+        <v>17.06129252622502</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>21.64131332290061</v>
+        <v>17.50844533293061</v>
       </c>
       <c r="F10">
-        <v>38.18402558234128</v>
+        <v>32.76332002195564</v>
       </c>
       <c r="G10">
-        <v>3.609970755088169</v>
+        <v>2.046830129491723</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.623475403984405</v>
+        <v>4.293943152868308</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.28458345794194</v>
+        <v>22.27393720921322</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.45929225882637</v>
+        <v>12.75466166850301</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.51604702430854</v>
+        <v>26.15090737864677</v>
       </c>
       <c r="C11">
-        <v>10.63375053888137</v>
+        <v>17.60186808383113</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>21.6945790634793</v>
+        <v>17.93177860440612</v>
       </c>
       <c r="F11">
-        <v>38.243250128863</v>
+        <v>33.59557571258067</v>
       </c>
       <c r="G11">
-        <v>3.60853157016232</v>
+        <v>2.042355743951283</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.607838142840871</v>
+        <v>4.2412741286117</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.49300172091274</v>
+        <v>23.07349813248556</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.39207209634869</v>
+        <v>12.85723178623908</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.67518858977731</v>
+        <v>26.47791237330094</v>
       </c>
       <c r="C12">
-        <v>10.73997274715429</v>
+        <v>17.80279944829455</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.71526768156609</v>
+        <v>18.09143723463471</v>
       </c>
       <c r="F12">
-        <v>38.26742654714906</v>
+        <v>33.91251567735012</v>
       </c>
       <c r="G12">
-        <v>3.607996537865269</v>
+        <v>2.040670379921546</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.602022638283527</v>
+        <v>4.221427349588417</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.57168836237427</v>
+        <v>23.37030008416511</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.36767255139902</v>
+        <v>12.90134620365265</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.64105280316365</v>
+        <v>26.40778172557252</v>
       </c>
       <c r="C13">
-        <v>10.71719258611608</v>
+        <v>17.7596928554442</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.71078914254517</v>
+        <v>18.05708170872742</v>
       </c>
       <c r="F13">
-        <v>38.26214208197305</v>
+        <v>33.84417927424554</v>
       </c>
       <c r="G13">
-        <v>3.608111324678183</v>
+        <v>2.041032974845936</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.603270405826419</v>
+        <v>4.22569758016008</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.55475331588669</v>
+        <v>23.30664254371371</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.37288034493872</v>
+        <v>12.89160621206548</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.52920188201742</v>
+        <v>26.17794367496169</v>
       </c>
       <c r="C14">
-        <v>10.64253303098575</v>
+        <v>17.61847436329246</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>21.69627080544551</v>
+        <v>17.94492716903002</v>
       </c>
       <c r="F14">
-        <v>38.24520413526603</v>
+        <v>33.62161540391651</v>
       </c>
       <c r="G14">
-        <v>3.608487353499646</v>
+        <v>2.042216915557873</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.607357576662159</v>
+        <v>4.239639441263537</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.49948042374413</v>
+        <v>23.09803535448336</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.39004352737059</v>
+        <v>12.86075374749515</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.46028635269215</v>
+        <v>26.03629369883679</v>
       </c>
       <c r="C15">
-        <v>10.59651929286911</v>
+        <v>17.53148301255221</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>21.68744506293399</v>
+        <v>17.87614294854431</v>
       </c>
       <c r="F15">
-        <v>38.23505667670189</v>
+        <v>33.48551772015823</v>
       </c>
       <c r="G15">
-        <v>3.60871897701625</v>
+        <v>2.04294324445511</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.609874873801263</v>
+        <v>4.248191562438692</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.46559147584804</v>
+        <v>22.96948242760321</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.40069418222171</v>
+        <v>12.8425511716655</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.05922161816931</v>
+        <v>25.21118916250701</v>
       </c>
       <c r="C16">
-        <v>10.32852586871044</v>
+        <v>17.02543606488374</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>21.63790532887112</v>
+        <v>17.48069237104416</v>
       </c>
       <c r="F16">
-        <v>38.18040044069376</v>
+        <v>32.70918559025242</v>
       </c>
       <c r="G16">
-        <v>3.610066205194774</v>
+        <v>2.047123870606943</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.624512195814943</v>
+        <v>4.297399637085563</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.27093312836951</v>
+        <v>22.22084245259875</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.46383240593909</v>
+        <v>12.74868019676877</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.8077612090223</v>
+        <v>24.69301509328721</v>
       </c>
       <c r="C17">
-        <v>10.16030551300714</v>
+        <v>16.70826211213815</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>21.60844782494135</v>
+        <v>17.23701476790066</v>
       </c>
       <c r="F17">
-        <v>38.14999640887998</v>
+        <v>32.23622858788416</v>
       </c>
       <c r="G17">
-        <v>3.610910473971301</v>
+        <v>2.049705952992697</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.633681059504088</v>
+        <v>4.327776036868087</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.15116244320573</v>
+        <v>21.75082689239649</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.50443504516902</v>
+        <v>12.70016418755664</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.66116004275124</v>
+        <v>24.39053755887496</v>
       </c>
       <c r="C18">
-        <v>10.06215973799766</v>
+        <v>16.5233572297527</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>21.59185086782385</v>
+        <v>17.09648549997499</v>
       </c>
       <c r="F18">
-        <v>38.13366015645315</v>
+        <v>31.96545053949412</v>
       </c>
       <c r="G18">
-        <v>3.611402628730461</v>
+        <v>2.051197897405651</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.639024499693478</v>
+        <v>4.345321374104709</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.08216401053783</v>
+        <v>21.47650450559781</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.5284725379831</v>
+        <v>12.67549208907058</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.61118788849522</v>
+        <v>24.28735915974386</v>
       </c>
       <c r="C19">
-        <v>10.02869179229833</v>
+        <v>16.46032657761116</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>21.58629117865512</v>
+        <v>17.04884335738797</v>
       </c>
       <c r="F19">
-        <v>38.1283269468263</v>
+        <v>31.87398961302999</v>
       </c>
       <c r="G19">
-        <v>3.611570391064483</v>
+        <v>2.051704248988964</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.640845692957991</v>
+        <v>4.351274962420994</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.05878549614288</v>
+        <v>21.38293683704637</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.53672839474854</v>
+        <v>12.66768401133335</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.83473382960551</v>
+        <v>24.74863426027491</v>
       </c>
       <c r="C20">
-        <v>10.17835699292673</v>
+        <v>16.74228194894365</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>21.61154786386557</v>
+        <v>17.26299380730075</v>
       </c>
       <c r="F20">
-        <v>38.15311386449196</v>
+        <v>32.28644688202055</v>
       </c>
       <c r="G20">
-        <v>3.610819922212818</v>
+        <v>2.049430391145565</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.632697803049511</v>
+        <v>4.324534889993487</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.16392403880463</v>
+        <v>21.80127225829986</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.50004197170744</v>
+        <v>12.70499187960403</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.56213943234277</v>
+        <v>26.24563330712236</v>
       </c>
       <c r="C21">
-        <v>10.6645213022439</v>
+        <v>17.66005594248401</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>21.70052121589602</v>
+        <v>17.97788777136487</v>
       </c>
       <c r="F21">
-        <v>38.25013182397885</v>
+        <v>33.6869402290402</v>
       </c>
       <c r="G21">
-        <v>3.608376634934577</v>
+        <v>2.041868930189658</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.606154203254986</v>
+        <v>4.235541834623413</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.51572233904529</v>
+        <v>23.15946966643581</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.38497356902453</v>
+        <v>12.86967042012285</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.01953816544246</v>
+        <v>27.18510353061793</v>
       </c>
       <c r="C22">
-        <v>10.96964010411682</v>
+        <v>18.23789438987943</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.76168491187714</v>
+        <v>18.44131207786182</v>
       </c>
       <c r="F22">
-        <v>38.32372961184984</v>
+        <v>34.61260556504588</v>
       </c>
       <c r="G22">
-        <v>3.606837811651103</v>
+        <v>2.036978802684454</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.589423956462459</v>
+        <v>4.177943097097435</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.74423420584205</v>
+        <v>24.01235706162433</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.31592505007606</v>
+        <v>13.0081584239326</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.77708379500144</v>
+        <v>26.68721935112596</v>
       </c>
       <c r="C23">
-        <v>10.80795728604335</v>
+        <v>17.93149715533222</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.72876831768111</v>
+        <v>18.19434097385724</v>
       </c>
       <c r="F23">
-        <v>38.2835200827925</v>
+        <v>34.11764353973187</v>
       </c>
       <c r="G23">
-        <v>3.607653820076878</v>
+        <v>2.039584471575072</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.598296873704611</v>
+        <v>4.208637745954488</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.62242260854863</v>
+        <v>23.56030240362155</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.35221118820358</v>
+        <v>12.93132600956345</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.82254583523933</v>
+        <v>24.72350308332645</v>
       </c>
       <c r="C24">
-        <v>10.17020038157188</v>
+        <v>16.72690954663226</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>21.61014528093603</v>
+        <v>17.25125003499291</v>
       </c>
       <c r="F24">
-        <v>38.15170090041162</v>
+        <v>32.26373965767287</v>
       </c>
       <c r="G24">
-        <v>3.610860839560052</v>
+        <v>2.049554949291399</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.633142108533328</v>
+        <v>4.325999957517372</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.15815495469608</v>
+        <v>21.77847869942011</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.50202591756599</v>
+        <v>12.70279927289338</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.71811692298821</v>
+        <v>22.43536955774277</v>
       </c>
       <c r="C25">
-        <v>9.429357016390544</v>
+        <v>15.3330387807754</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>21.49546127261518</v>
+        <v>16.22021518232004</v>
       </c>
       <c r="F25">
-        <v>38.05354170733307</v>
+        <v>30.31277587240939</v>
       </c>
       <c r="G25">
-        <v>3.614570911581587</v>
+        <v>2.060573991166307</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.673397380749217</v>
+        <v>4.455455905972667</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.65345308414039</v>
+        <v>19.82129307606153</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.68973470736064</v>
+        <v>12.57843832600974</v>
       </c>
     </row>
   </sheetData>
